--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_16.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-90364.40385465078</v>
+        <v>-52477.79480449707</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17257637.27977394</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484454</v>
+        <v>492028.9342484445</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8694849.002233468</v>
+        <v>8720418.044422586</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -668,16 +668,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.4275255899064</v>
+        <v>40.60708837194289</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>8.208419683653789</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>65.62156029295234</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -896,22 +896,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>375.8510412171782</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>216.7404152131616</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>46.2253027104011</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1117,10 +1117,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>63.29756371655495</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>67.27883285212991</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>304.3964473643801</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>74.45572328034324</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>340.3727851659938</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>32.6707771990715</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561542</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1531,7 +1531,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225763</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>199.4201398804784</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1670,10 +1670,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>403.569985708015</v>
       </c>
       <c r="Y14" t="n">
-        <v>218.7429384547804</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225683</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1825,7 +1825,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>129.7139627068455</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1850,7 +1850,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>244.6538412157994</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>206.2209554252812</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2008,7 +2008,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904392</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2056,10 +2056,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>260.4356504767627</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>153.3482742143627</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884118</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>71.8469234786638</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2245,19 +2245,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170498</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>28.46824604904403</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>18.05677735225727</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225828</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800052</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
         <v>217.8665548556918</v>
@@ -2725,10 +2725,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>43.4889870101594</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225785</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T31" t="n">
-        <v>240.2737862279055</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>172.6623007436909</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.3484266092796</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.0243759141564</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.176133815753</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.9712315838374</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.40273359887</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.5781590863804</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.4878110526659</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.423472922476</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>163.8065913913612</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>167.6478022326388</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.52736201873</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.0905310873979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.36072825394005</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T40" t="n">
-        <v>43.80028873226731</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.2360492602944</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>283.6733315691425</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.40273359886993</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4539333765603</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,22 +3895,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>26.24351759540835</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.5252156407902</v>
+        <v>103.3456594571967</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.40273359886993</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4539333765603</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>32.52992480485624</v>
+        <v>24.34318456170504</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.2363335358519</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.5252156407902</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>443.0234284442651</v>
+        <v>1667.248894477528</v>
       </c>
       <c r="C2" t="n">
-        <v>408.9213596680925</v>
+        <v>1229.106421660951</v>
       </c>
       <c r="D2" t="n">
-        <v>377.0519788829411</v>
+        <v>1197.2370408758</v>
       </c>
       <c r="E2" t="n">
-        <v>347.3176380816403</v>
+        <v>1167.502700074499</v>
       </c>
       <c r="F2" t="n">
-        <v>323.4906125312521</v>
+        <v>739.6352704837067</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>338.2374391069706</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031047</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>1092.064618311666</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>1092.064618311666</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1092.064618311666</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1092.064618311666</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489126</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797688</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756282</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693176</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693176</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2112.490051010193</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1749.87310094402</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.711182009805</v>
+        <v>1708.855839962259</v>
       </c>
       <c r="X2" t="n">
-        <v>873.5687185891154</v>
+        <v>1693.753780581974</v>
       </c>
       <c r="Y2" t="n">
-        <v>465.2825948887688</v>
+        <v>1689.508060922032</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>90.84293673397431</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064439</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>446.7326829940189</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214.7967131321751</v>
+        <v>877.8406211505144</v>
       </c>
       <c r="C4" t="n">
-        <v>42.23500161540005</v>
+        <v>705.2789096337393</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>539.400916835262</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>369.6429130859993</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>369.6429130859993</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>204.0516381118269</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>200.0427573423654</v>
       </c>
       <c r="L4" t="n">
-        <v>120.5233537662982</v>
+        <v>618.2526391103264</v>
       </c>
       <c r="M4" t="n">
-        <v>540.5762527112014</v>
+        <v>1077.736506291239</v>
       </c>
       <c r="N4" t="n">
-        <v>960.6291516561047</v>
+        <v>1519.995309448884</v>
       </c>
       <c r="O4" t="n">
-        <v>1380.298400881886</v>
+        <v>1939.664558674666</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2287.171452645007</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214711</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214711</v>
       </c>
       <c r="T4" t="n">
-        <v>1429.886162364244</v>
+        <v>2188.066959793166</v>
       </c>
       <c r="U4" t="n">
-        <v>1151.45316161735</v>
+        <v>1909.633959046272</v>
       </c>
       <c r="V4" t="n">
-        <v>1151.45316161735</v>
+        <v>1622.678450916702</v>
       </c>
       <c r="W4" t="n">
-        <v>879.4267572036415</v>
+        <v>1350.652046502994</v>
       </c>
       <c r="X4" t="n">
-        <v>634.035002537054</v>
+        <v>1105.260291836406</v>
       </c>
       <c r="Y4" t="n">
-        <v>406.6153318511622</v>
+        <v>877.8406211505144</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>907.8468535075729</v>
+        <v>1197.718769568168</v>
       </c>
       <c r="C5" t="n">
-        <v>873.7447847314002</v>
+        <v>759.5762967515918</v>
       </c>
       <c r="D5" t="n">
-        <v>841.8754039462488</v>
+        <v>727.7069159664404</v>
       </c>
       <c r="E5" t="n">
-        <v>462.2278875652606</v>
+        <v>697.9725751651397</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>674.1455496147515</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>272.7477182380154</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1528.02936532736</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1354.309253581271</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>1354.309253581271</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W5" t="n">
-        <v>949.4537989923044</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X5" t="n">
-        <v>934.3517396120192</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y5" t="n">
-        <v>930.1060199520766</v>
+        <v>1219.977936012672</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.2929473250434</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>369.2929473250434</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>369.2929473250434</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>199.5349435757807</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>199.5349435757807</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>369.2929473250434</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.2929473250434</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>190.3682004113184</v>
+        <v>852.5762146508135</v>
       </c>
       <c r="C8" t="n">
-        <v>122.409783388965</v>
+        <v>414.4337418342369</v>
       </c>
       <c r="D8" t="n">
-        <v>90.54040260381355</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>60.80606180251278</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>36.97903625212457</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>36.97903625212457</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>36.97903625212457</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.97903625212457</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.2337237050425</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>764.5666006130888</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>764.5666006130888</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>764.5666006130888</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>764.5666006130888</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>764.5666006130888</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1222.18217423313</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1679.797747853172</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1848.951812606229</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1848.951812606229</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1848.951812606229</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1848.951812606229</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1848.951812606229</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W8" t="n">
-        <v>1444.096358017262</v>
+        <v>2106.304372256757</v>
       </c>
       <c r="X8" t="n">
-        <v>1024.953894596573</v>
+        <v>1687.161908836068</v>
       </c>
       <c r="Y8" t="n">
-        <v>616.6677708962262</v>
+        <v>1278.875785135721</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>543.1507812434173</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.6943200800596</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.6040312266129</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.4836165535666</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>164.0997781697282</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.71468843591211</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.97903625212457</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>63.04270941258217</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.6010343787945</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>845.216607998836</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1125.430446016552</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1125.430446016552</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1125.430446016552</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1125.430446016552</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1125.430446016552</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1583.046019636594</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.218797730933</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.763360179316</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.584716509918</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.248169509886</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1131.130651571886</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.8078973050797</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.9404615439597</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.4546823231805</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.97903625212457</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>36.97903625212457</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>36.97903625212457</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>36.97903625212457</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>36.97903625212457</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>36.97903625212457</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>36.97903625212457</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>36.97903625212457</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.97903625212457</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.97903625212457</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>455.1889180200856</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>912.8044916401273</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1355.063294797772</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1774.732544023553</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1848.951812606229</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1848.951812606229</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1827.533991311601</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1668.292622609597</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1422.413176188053</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1143.980175441158</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>857.0246673115882</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>584.9982628978798</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>339.6065082312923</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>112.1868375454006</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2465.646698863819</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C11" t="n">
-        <v>2027.504226047242</v>
+        <v>2085.232711245547</v>
       </c>
       <c r="D11" t="n">
-        <v>1591.594441221686</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
-        <v>1157.819696379981</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>729.9522667891893</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
-        <v>386.1413726821247</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>97.01121812534095</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I11" t="n">
-        <v>96.59442875248095</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J11" t="n">
-        <v>396.168787297656</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K11" t="n">
-        <v>1230.519079255834</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>2305.579045508694</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>2305.579045508694</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="N11" t="n">
-        <v>2305.579045508694</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="O11" t="n">
-        <v>3285.758712078999</v>
+        <v>3461.990173263767</v>
       </c>
       <c r="P11" t="n">
-        <v>4114.068586912395</v>
+        <v>4290.300048097163</v>
       </c>
       <c r="Q11" t="n">
-        <v>4660.567372870991</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="R11" t="n">
-        <v>4829.721437624047</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S11" t="n">
-        <v>4746.069563807884</v>
+        <v>4803.798049006191</v>
       </c>
       <c r="T11" t="n">
-        <v>4746.069563807884</v>
+        <v>4803.798049006191</v>
       </c>
       <c r="U11" t="n">
-        <v>4486.847261124903</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V11" t="n">
-        <v>4124.230311058729</v>
+        <v>4181.958796257034</v>
       </c>
       <c r="W11" t="n">
-        <v>3719.374856469762</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X11" t="n">
-        <v>3300.232393049073</v>
+        <v>3357.960878247378</v>
       </c>
       <c r="Y11" t="n">
-        <v>2891.946269348726</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.7661737437737</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C12" t="n">
-        <v>496.309712580416</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D12" t="n">
-        <v>401.2194237269693</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E12" t="n">
-        <v>307.099009053923</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F12" t="n">
-        <v>223.7151706700846</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G12" t="n">
-        <v>138.3300809362685</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.59442875248095</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I12" t="n">
-        <v>122.6581019129385</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
-        <v>447.2164268791509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1101.922473504874</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1101.922473504874</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1101.922473504874</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1101.922473504874</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1101.922473504874</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
-        <v>1101.922473504874</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.66141213695</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.83419023129</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.378752679673</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.200109010274</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.863562010243</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.746044072242</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.423289805436</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X12" t="n">
-        <v>850.5558540443161</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.0700748235369</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.0904658294123</v>
+        <v>1009.916144494519</v>
       </c>
       <c r="C13" t="n">
-        <v>774.5287543126371</v>
+        <v>837.3544329777444</v>
       </c>
       <c r="D13" t="n">
-        <v>608.65076151416</v>
+        <v>837.3544329777444</v>
       </c>
       <c r="E13" t="n">
-        <v>438.8927577648971</v>
+        <v>667.5964292284816</v>
       </c>
       <c r="F13" t="n">
-        <v>262.1857037266533</v>
+        <v>490.8893751902378</v>
       </c>
       <c r="G13" t="n">
-        <v>96.59442875248095</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H13" t="n">
-        <v>96.59442875248095</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I13" t="n">
-        <v>96.59442875248095</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J13" t="n">
-        <v>183.1741139171708</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
-        <v>457.9325684883065</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.1424502562675</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.62631743718</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N13" t="n">
-        <v>1777.885120594825</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.554369820606</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.061263790948</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.254038655281</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.254038655281</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.014869612596</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.135423191051</v>
+        <v>2511.961101856159</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.702422444157</v>
+        <v>2233.528101109264</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.746914314587</v>
+        <v>1946.572592979694</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.720509900879</v>
+        <v>1674.546188565986</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.328755234291</v>
+        <v>1429.154433899398</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.9090845484</v>
+        <v>1201.734763213507</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.944435344159</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.801962527582</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.892177702026</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.117432860322</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>787.2500032695294</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8521718927933</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>96.72201733600957</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I14" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
-        <v>402.5482164740858</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>1236.898508432264</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>2311.958474685123</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2311.958474685123</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>2311.958474685123</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.138141255429</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P14" t="n">
-        <v>4120.448016088825</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q14" t="n">
-        <v>4666.946802047421</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.100866800477</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.100866800477</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.033639673516</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U14" t="n">
-        <v>4356.811336990532</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="V14" t="n">
-        <v>3994.194386924359</v>
+        <v>4170.462783046461</v>
       </c>
       <c r="W14" t="n">
-        <v>3589.338932335392</v>
+        <v>3765.607328457495</v>
       </c>
       <c r="X14" t="n">
-        <v>3170.196468914703</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.244005829067</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.8937623273023</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4373011639446</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3470123104979</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2265976374516</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8427592536132</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4576695197971</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7856904964671</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3440154626795</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.789000720479</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.961778814818</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.506341263201</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.327697593803</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.991150593771</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.873632655771</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.550878388965</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6834426278447</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.1976634070654</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2180544129408</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6563428961657</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D16" t="n">
-        <v>608.7783500976884</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0203463484257</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3132923101819</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G16" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H16" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I16" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3017025006994</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
-        <v>458.060157071835</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.270038839796</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.753906020709</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.012709178354</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.681958404135</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.188852374476</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.381627238809</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.381627238809</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.140258536806</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.260812115261</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.827811368366</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.872303238797</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.848098484407</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.45634381782</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.036673131928</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.944435344159</v>
+        <v>2336.308741984731</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.801962527582</v>
+        <v>1898.166269168154</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.892177702027</v>
+        <v>1462.256484342598</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.117432860322</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>787.2500032695294</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G17" t="n">
-        <v>385.8521718927933</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I17" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J17" t="n">
-        <v>531.9767047889275</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K17" t="n">
-        <v>1366.326996747106</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>2441.386962999965</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2441.386962999965</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>2441.386962999965</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O17" t="n">
-        <v>3421.566629570271</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P17" t="n">
-        <v>4249.876504403667</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q17" t="n">
-        <v>4796.375290362263</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.100866800477</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4752.448992984314</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T17" t="n">
-        <v>4752.448992984314</v>
+        <v>4616.731606928798</v>
       </c>
       <c r="U17" t="n">
-        <v>4544.144997605242</v>
+        <v>4357.509304245815</v>
       </c>
       <c r="V17" t="n">
-        <v>4181.528047539068</v>
+        <v>3994.892354179641</v>
       </c>
       <c r="W17" t="n">
-        <v>3776.672592950102</v>
+        <v>3590.036899590674</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.530129529413</v>
+        <v>3170.894436169985</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.244005829066</v>
+        <v>2762.608312469638</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>602.8937623273023</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C18" t="n">
-        <v>496.4373011639446</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D18" t="n">
-        <v>401.3470123104979</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E18" t="n">
-        <v>307.2265976374516</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F18" t="n">
-        <v>223.8427592536132</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G18" t="n">
-        <v>138.4576695197971</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I18" t="n">
-        <v>122.7856904964671</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>447.3440154626795</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L18" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M18" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N18" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O18" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P18" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q18" t="n">
-        <v>1642.789000720479</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R18" t="n">
-        <v>1759.961778814818</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S18" t="n">
-        <v>1696.506341263201</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T18" t="n">
-        <v>1566.327697593803</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U18" t="n">
-        <v>1389.991150593771</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V18" t="n">
-        <v>1190.873632655771</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W18" t="n">
-        <v>1005.550878388965</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X18" t="n">
-        <v>850.6834426278447</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y18" t="n">
-        <v>724.1976634070654</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1087.120228722566</v>
+        <v>806.2298140987272</v>
       </c>
       <c r="C19" t="n">
-        <v>914.5585172057913</v>
+        <v>633.6681025819521</v>
       </c>
       <c r="D19" t="n">
-        <v>748.680524407314</v>
+        <v>467.7901097834747</v>
       </c>
       <c r="E19" t="n">
-        <v>578.9225206580512</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F19" t="n">
-        <v>402.2154666198073</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G19" t="n">
-        <v>236.624191645635</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H19" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I19" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J19" t="n">
-        <v>183.3017025006994</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K19" t="n">
-        <v>458.060157071835</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L19" t="n">
-        <v>876.270038839796</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.753906020709</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N19" t="n">
-        <v>1778.012709178354</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O19" t="n">
-        <v>2197.681958404135</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P19" t="n">
-        <v>2545.188852374476</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q19" t="n">
-        <v>2713.381627238809</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2691.963805944181</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2532.722437242178</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T19" t="n">
-        <v>2286.842990820633</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U19" t="n">
-        <v>2286.842990820633</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V19" t="n">
-        <v>2023.776677207741</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W19" t="n">
-        <v>1751.750272794033</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X19" t="n">
-        <v>1506.358518127445</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y19" t="n">
-        <v>1278.938847441553</v>
+        <v>998.0484328177142</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2523.361224717019</v>
+        <v>2522.958394689265</v>
       </c>
       <c r="C20" t="n">
-        <v>2085.218751900442</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D20" t="n">
-        <v>1649.308967074887</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.534222233182</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F20" t="n">
-        <v>787.6667926423894</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2689612656533</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>97.13880670886954</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I20" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J20" t="n">
-        <v>531.9767047889275</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K20" t="n">
-        <v>1366.326996747106</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>2441.386962999965</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2441.386962999965</v>
+        <v>3598.448757555621</v>
       </c>
       <c r="N20" t="n">
-        <v>2441.386962999965</v>
+        <v>4724.179740992068</v>
       </c>
       <c r="O20" t="n">
-        <v>3421.566629570271</v>
+        <v>4724.179740992068</v>
       </c>
       <c r="P20" t="n">
-        <v>4249.876504403667</v>
+        <v>4724.179740992068</v>
       </c>
       <c r="Q20" t="n">
-        <v>4796.375290362263</v>
+        <v>4724.179740992068</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.100866800477</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4752.448992984314</v>
+        <v>4764.22618407731</v>
       </c>
       <c r="T20" t="n">
-        <v>4532.381765857353</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.159463174369</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="V20" t="n">
-        <v>3910.542513108196</v>
+        <v>4181.542006884176</v>
       </c>
       <c r="W20" t="n">
-        <v>3505.687058519229</v>
+        <v>3776.686552295209</v>
       </c>
       <c r="X20" t="n">
-        <v>3086.54459509854</v>
+        <v>3357.54408887452</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.258471398193</v>
+        <v>2949.257965174173</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.8937623273023</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C21" t="n">
-        <v>496.4373011639446</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D21" t="n">
-        <v>401.3470123104979</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E21" t="n">
-        <v>307.2265976374516</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F21" t="n">
-        <v>223.8427592536132</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G21" t="n">
-        <v>138.4576695197971</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I21" t="n">
-        <v>122.7856904964671</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
-        <v>447.3440154626795</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K21" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L21" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M21" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N21" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O21" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P21" t="n">
-        <v>1102.050062088403</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q21" t="n">
-        <v>1642.789000720479</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R21" t="n">
-        <v>1759.961778814818</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S21" t="n">
-        <v>1696.506341263201</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T21" t="n">
-        <v>1566.327697593803</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U21" t="n">
-        <v>1389.991150593771</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V21" t="n">
-        <v>1190.873632655771</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W21" t="n">
-        <v>1005.550878388965</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X21" t="n">
-        <v>850.6834426278447</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y21" t="n">
-        <v>724.1976634070654</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>806.2158547536219</v>
+        <v>806.2298140987272</v>
       </c>
       <c r="C22" t="n">
-        <v>633.6541432368469</v>
+        <v>633.6681025819521</v>
       </c>
       <c r="D22" t="n">
-        <v>467.7761504383697</v>
+        <v>467.7901097834748</v>
       </c>
       <c r="E22" t="n">
-        <v>298.0181466891069</v>
+        <v>467.7901097834748</v>
       </c>
       <c r="F22" t="n">
-        <v>121.3110926508631</v>
+        <v>291.083055745231</v>
       </c>
       <c r="G22" t="n">
-        <v>96.72201733600954</v>
+        <v>125.4917807710587</v>
       </c>
       <c r="H22" t="n">
-        <v>96.72201733600954</v>
+        <v>125.4917807710587</v>
       </c>
       <c r="I22" t="n">
-        <v>96.72201733600954</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J22" t="n">
-        <v>183.3017025006994</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K22" t="n">
-        <v>458.060157071835</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L22" t="n">
-        <v>876.270038839796</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.753906020709</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N22" t="n">
-        <v>1778.012709178354</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O22" t="n">
-        <v>2197.681958404135</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P22" t="n">
-        <v>2545.188852374477</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q22" t="n">
-        <v>2713.381627238809</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.381627238809</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2554.140258536806</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T22" t="n">
-        <v>2308.260812115261</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U22" t="n">
-        <v>2029.827811368366</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V22" t="n">
-        <v>1742.872303238797</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W22" t="n">
-        <v>1470.845898825088</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X22" t="n">
-        <v>1225.454144158501</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y22" t="n">
-        <v>998.0344734726091</v>
+        <v>998.0484328177142</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309358</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324585</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258799</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>286.0912842876361</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134637</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134637</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6160,37 +6160,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338906</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309248</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6227,7 +6227,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2627364873769</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
         <v>1632.322702740236</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903957</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736206</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751434</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258806</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>286.0912842876368</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795275</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6625,10 +6625,10 @@
         <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745665</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
         <v>1783.551532113124</v>
@@ -6643,10 +6643,10 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
         <v>2454.80183470935</v>
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2117.975449367836</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954128</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601649</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6923,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6974,13 +6974,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
         <v>267.852115244952</v>
@@ -7096,7 +7096,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
         <v>881.8088617745661</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2525.854933458239</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2088.129250014524</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>791.8276588750509</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>390.8466168711748</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.1332516872511</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2582.520192247198</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3562.699858817504</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4391.009733650901</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4937.508519609495</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4544.971548855024</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4182.77138816171</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3778.332722945603</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3359.607048897774</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2951.737714570287</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.1969248477086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1178.273886689113</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>1006.128964545198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>840.6677611195803</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>671.3265467431775</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>495.0362820777936</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>329.8617964764812</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.3764115397157</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>189.1214321162809</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>464.2883819517565</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>882.9067589840578</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2722.060823704771</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2677.818107813592</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2399.801896439557</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>2113.263177682848</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1841.653562641999</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1596.678597348272</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1369.67571603524</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2525.854933458241</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.129250014524</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>791.8276588750512</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>390.8466168711744</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H41" t="n">
-        <v>102.1332516872507</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2582.520192247198</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3562.699858817504</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4391.009733650901</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4937.508519609495</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4544.971548855025</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4182.771388161711</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3359.607048897775</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2951.737714570289</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>128.1969248477086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.5453418998821</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>778.4004197559671</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D43" t="n">
-        <v>612.9392163303496</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E43" t="n">
-        <v>443.5980019539471</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F43" t="n">
-        <v>267.3077372885633</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>464.2883819517567</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>882.9067589840579</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2695.552220073046</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2450.089563024361</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U43" t="n">
-        <v>2172.073351650326</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V43" t="n">
-        <v>1885.534632893617</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.925017852768</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X43" t="n">
-        <v>1368.950052559041</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1141.947171246009</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2525.85493345824</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2088.129250014524</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>791.8276588750514</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>390.8466168711752</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2582.520192247198</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3562.699858817504</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4391.009733650901</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4937.508519609495</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.971548855024</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4182.77138816171</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3359.607048897775</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2951.737714570288</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>128.1969248477086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>818.2293662024649</v>
+        <v>811.7546776883922</v>
       </c>
       <c r="C46" t="n">
-        <v>646.0844440585498</v>
+        <v>639.1929661716172</v>
       </c>
       <c r="D46" t="n">
-        <v>480.6232406329325</v>
+        <v>473.3149733731398</v>
       </c>
       <c r="E46" t="n">
-        <v>311.2820262565299</v>
+        <v>303.5569696238771</v>
       </c>
       <c r="F46" t="n">
-        <v>134.9917615911461</v>
+        <v>126.8499155856332</v>
       </c>
       <c r="G46" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>464.2883819517567</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>882.9067589840579</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2563.236244375629</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2317.773587326944</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2039.757375952909</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1753.2186571962</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W46" t="n">
-        <v>1481.609042155351</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X46" t="n">
-        <v>1236.634076861624</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y46" t="n">
-        <v>1009.631195548592</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>40.34758805804063</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.47818213854771</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>152.4600735274531</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>295.2857342505519</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>462.2379531515571</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>462.2379531515571</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>462.2379531515572</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>283.0442808259759</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>462.2379531515571</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>462.2379531515572</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>74.96895816431879</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>302.6003621668435</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8696,7 +8696,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>308.9153526647235</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>40.1268448870851</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9407,22 +9407,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>40.1268448870851</v>
+        <v>113.7566596602937</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9875,10 +9875,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>459.59787496626</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>137.0929241373656</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>137.0929241373656</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>137.0929241373656</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>57.01106789697491</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>50.14457787892986</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627257</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>44.00051207685087</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>11.3810530784674</v>
       </c>
       <c r="Y14" t="n">
-        <v>185.4603240085635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627265</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>184.7831561774884</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>50.40912423087209</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>23.65030257151111</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>268.688300565696</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>10.96843159933757</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>59.30510368402739</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081414</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.592177662725</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>120.4463752142712</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627254</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T31" t="n">
-        <v>3.14686572942378</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.79102160255047</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.2363335358519</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T40" t="n">
-        <v>199.2077417459306</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.36072825393998</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.79102160255041</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>130.9928159404435</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>139.592177662725</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>130.9928159404429</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="H46" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.36072825393998</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.79102160255041</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>748327.4682334561</v>
+        <v>756102.880354806</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>748327.4682334561</v>
+        <v>758304.66987959</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>749883.9066517471</v>
+        <v>758304.66987959</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>733242.4302980145</v>
+        <v>734036.0703396812</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>733957.8021845894</v>
+        <v>734036.0703396816</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>733957.8021845896</v>
+        <v>734036.0703396813</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>733957.8021845896</v>
+        <v>734036.0703396813</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>765281.6901074762</v>
+        <v>765013.2313042658</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>765281.6901074762</v>
+        <v>765013.2313042658</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>765281.6901074762</v>
+        <v>765013.2313042658</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26320,40 @@
         <v>214458.9279561634</v>
       </c>
       <c r="E2" t="n">
-        <v>201990.930146496</v>
+        <v>202209.5591886706</v>
       </c>
       <c r="F2" t="n">
-        <v>202187.9981649292</v>
+        <v>202209.5591886707</v>
       </c>
       <c r="G2" t="n">
-        <v>202187.9981649292</v>
+        <v>202209.5591886706</v>
       </c>
       <c r="H2" t="n">
-        <v>202187.9981649291</v>
+        <v>202209.5591886706</v>
       </c>
       <c r="I2" t="n">
         <v>210743.033654941</v>
       </c>
       <c r="J2" t="n">
+        <v>210743.033654941</v>
+      </c>
+      <c r="K2" t="n">
         <v>210743.0336549409</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>210743.033654941</v>
       </c>
-      <c r="L2" t="n">
-        <v>210743.0336549409</v>
-      </c>
       <c r="M2" t="n">
-        <v>210743.0336549409</v>
+        <v>210743.033654941</v>
       </c>
       <c r="N2" t="n">
-        <v>210837.4710260739</v>
+        <v>210743.033654941</v>
       </c>
       <c r="O2" t="n">
-        <v>210837.4710260739</v>
+        <v>210743.033654941</v>
       </c>
       <c r="P2" t="n">
-        <v>210837.4710260739</v>
+        <v>210743.033654941</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039031</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.5443739065</v>
       </c>
       <c r="D3" t="n">
-        <v>11785.9531659982</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>222498.0582746426</v>
+        <v>161735.0752101143</v>
       </c>
       <c r="F3" t="n">
-        <v>456.9680810514288</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18411.11667046245</v>
+        <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449901</v>
+        <v>160607.8294856134</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784502</v>
       </c>
       <c r="L3" t="n">
-        <v>9602.802925459975</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>185704.9284082352</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
-        <v>330.0971833050935</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193696.6796511644</v>
+        <v>158092.3824742623</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="D4" t="n">
-        <v>186569.6109996884</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="E4" t="n">
-        <v>52295.88666939426</v>
+        <v>52352.49019908698</v>
       </c>
       <c r="F4" t="n">
-        <v>52346.90800362286</v>
+        <v>52352.490199087</v>
       </c>
       <c r="G4" t="n">
-        <v>52346.90800362287</v>
+        <v>52352.490199087</v>
       </c>
       <c r="H4" t="n">
-        <v>52346.90800362287</v>
+        <v>52352.49019908695</v>
       </c>
       <c r="I4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="J4" t="n">
-        <v>54561.82510962279</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="K4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="M4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="N4" t="n">
-        <v>54927.77664666014</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="O4" t="n">
-        <v>54927.77664666021</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="P4" t="n">
-        <v>54927.77664666021</v>
+        <v>54561.82510962277</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26467,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814195</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61731.66755161468</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73411.76585188552</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73508.73317536725</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="G5" t="n">
-        <v>73508.73317536725</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="H5" t="n">
-        <v>73508.73317536725</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77655.95995743987</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77655.95995743989</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77655.95995743989</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-180853.8404919333</v>
+        <v>-220294.8472801439</v>
       </c>
       <c r="C6" t="n">
-        <v>-38662.53983222337</v>
+        <v>-25104.33522528993</v>
       </c>
       <c r="D6" t="n">
-        <v>-45628.30376113787</v>
+        <v>-7763.790851383485</v>
       </c>
       <c r="E6" t="n">
-        <v>-146214.7806494264</v>
+        <v>-85473.90705297508</v>
       </c>
       <c r="F6" t="n">
-        <v>75875.38890488766</v>
+        <v>76261.16815713927</v>
       </c>
       <c r="G6" t="n">
-        <v>76332.3569859391</v>
+        <v>76261.16815713921</v>
       </c>
       <c r="H6" t="n">
-        <v>76332.35698593901</v>
+        <v>76261.16815713925</v>
       </c>
       <c r="I6" t="n">
-        <v>60051.85326906323</v>
+        <v>60075.0299673035</v>
       </c>
       <c r="J6" t="n">
-        <v>-32551.49540546451</v>
+        <v>-82168.08388547035</v>
       </c>
       <c r="K6" t="n">
-        <v>78462.96993952568</v>
+        <v>64625.73703229799</v>
       </c>
       <c r="L6" t="n">
-        <v>68860.16701406569</v>
+        <v>78439.74560014304</v>
       </c>
       <c r="M6" t="n">
-        <v>-107241.9584687095</v>
+        <v>-56550.19901286034</v>
       </c>
       <c r="N6" t="n">
-        <v>77923.63723866883</v>
+        <v>78439.74560014304</v>
       </c>
       <c r="O6" t="n">
-        <v>78253.73442197376</v>
+        <v>78439.74560014307</v>
       </c>
       <c r="P6" t="n">
-        <v>78253.73442197379</v>
+        <v>78439.74560014304</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>462.2379531515572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1207.430359406012</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.025216700119</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.025216700119</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="H4" t="n">
-        <v>1209.025216700119</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26823,13 +26823,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052212</v>
       </c>
       <c r="D4" t="n">
-        <v>37.94209563145284</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>745.1924062544547</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="F4" t="n">
-        <v>1.594857294107442</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.23528668462609</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201042</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052212</v>
       </c>
       <c r="L4" t="n">
-        <v>37.94209563145262</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>745.1924062544549</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052212</v>
       </c>
       <c r="L4" t="n">
-        <v>37.94209563145284</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>745.1924062544547</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
-        <v>1.594857294107442</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,16 +27388,16 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3793744531706125</v>
+        <v>360.1998116711341</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>156.0107931868387</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>72.88159227357689</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>53.58595617610951</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>69.49843779805434</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>229.4233680290246</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>179.6402734033667</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>366.482215236281</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>127.1542396129198</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>115.444709251454</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4126214791313669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4126214791314268</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>40.34758805804063</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.47818213854771</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>152.4600735274531</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>295.2857342505519</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>462.2379531515571</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>462.2379531515571</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>462.2379531515572</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>283.0442808259759</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>462.2379531515571</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>462.2379531515572</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>74.96895816431879</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>302.6003621668435</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -35416,7 +35416,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35571,7 +35571,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>308.9153526647235</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -35662,13 +35662,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35808,22 +35808,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>40.1268448870851</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36045,22 +36045,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458551</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>40.1268448870851</v>
+        <v>113.7566596602937</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512952</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36595,10 +36595,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>459.59787496626</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36765,13 +36765,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36993,10 +36993,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080418</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -37008,7 +37008,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>137.0929241373656</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.86684891821204</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.9464139752279</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.5377398436901</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>447.1386852747319</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>424.3209540304256</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.3043132612856</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>137.0929241373656</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.8668489182121</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N43" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>137.0929241373656</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.8668489182121</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
